--- a/ShapAnalysisReport/DataAnalysis/Combined_desc_cluster.xlsx
+++ b/ShapAnalysisReport/DataAnalysis/Combined_desc_cluster.xlsx
@@ -205,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,6 +224,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -324,10 +328,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="G:H"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -358,9 +362,10 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -372,9 +377,10 @@
       <c r="D3" s="4" t="n">
         <v>64</v>
       </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -386,9 +392,10 @@
       <c r="D4" s="4" t="n">
         <v>89.2366546875</v>
       </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -400,9 +407,10 @@
       <c r="D5" s="4" t="n">
         <v>8.75515968090091</v>
       </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -414,9 +422,10 @@
       <c r="D6" s="4" t="n">
         <v>77.01</v>
       </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -428,9 +437,10 @@
       <c r="D7" s="4" t="n">
         <v>78.02109</v>
       </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -442,9 +452,10 @@
       <c r="D8" s="4" t="n">
         <v>78.43</v>
       </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -456,9 +467,10 @@
       <c r="D9" s="4" t="n">
         <v>78.545</v>
       </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -470,9 +482,10 @@
       <c r="D10" s="4" t="n">
         <v>90.48</v>
       </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -484,9 +497,10 @@
       <c r="D11" s="4" t="n">
         <v>93.83</v>
       </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -500,7 +514,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -514,7 +528,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -528,7 +542,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -542,7 +556,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -567,7 +581,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -581,7 +595,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -595,7 +609,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -609,7 +623,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -623,7 +637,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -637,7 +651,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -651,7 +665,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -665,7 +679,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -679,7 +693,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -693,7 +707,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -707,7 +721,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -721,7 +735,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -735,7 +749,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -749,7 +763,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -774,7 +788,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -788,7 +802,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -802,7 +816,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -816,7 +830,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -830,7 +844,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -844,7 +858,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -858,7 +872,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -872,7 +886,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -886,7 +900,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -900,7 +914,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -914,7 +928,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -928,7 +942,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -942,7 +956,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -956,7 +970,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -981,7 +995,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -995,7 +1009,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -1009,7 +1023,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="2" t="n">
@@ -1023,7 +1037,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="2" t="n">
@@ -1037,7 +1051,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2" t="n">
@@ -1051,7 +1065,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="2" t="n">
@@ -1065,7 +1079,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="2" t="n">
@@ -1079,7 +1093,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="2" t="n">
@@ -1093,7 +1107,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="2" t="n">
@@ -1107,7 +1121,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="2" t="n">
@@ -1121,7 +1135,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B61" s="2" t="n">
@@ -1135,7 +1149,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="2" t="n">
@@ -1149,7 +1163,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B63" s="2" t="n">
@@ -1163,7 +1177,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="2" t="n">
@@ -1188,7 +1202,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B67" s="2" t="n">
@@ -1202,7 +1216,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="2" t="n">
@@ -1216,7 +1230,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="n">
@@ -1230,7 +1244,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="2" t="n">
@@ -1244,7 +1258,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="2" t="n">
@@ -1258,7 +1272,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="2" t="n">
@@ -1272,7 +1286,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="2" t="n">
@@ -1286,7 +1300,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="2" t="n">
@@ -1300,7 +1314,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="2" t="n">
@@ -1314,7 +1328,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="2" t="n">
@@ -1328,7 +1342,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -1342,7 +1356,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -1356,7 +1370,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B79" s="2" t="n">
@@ -1370,7 +1384,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B80" s="2" t="n">
@@ -1395,7 +1409,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="2" t="n">
@@ -1409,7 +1423,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="2" t="n">
@@ -1423,7 +1437,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="2" t="n">
@@ -1437,7 +1451,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="2" t="n">
@@ -1451,7 +1465,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="2" t="n">
@@ -1465,7 +1479,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="2" t="n">
@@ -1479,7 +1493,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B89" s="2" t="n">
@@ -1493,7 +1507,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B90" s="2" t="n">
@@ -1507,7 +1521,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="2" t="n">
@@ -1521,7 +1535,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B92" s="2" t="n">
@@ -1535,7 +1549,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B93" s="2" t="n">
@@ -1549,7 +1563,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2" t="n">
@@ -1563,7 +1577,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="2" t="n">
@@ -1577,7 +1591,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B96" s="2" t="n">
@@ -1602,7 +1616,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="2" t="n">
@@ -1616,7 +1630,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="2" t="n">
@@ -1630,7 +1644,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="2" t="n">
@@ -1644,7 +1658,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B103" s="2" t="n">
@@ -1658,7 +1672,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="2" t="n">
@@ -1672,7 +1686,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B105" s="2" t="n">
@@ -1686,7 +1700,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B106" s="2" t="n">
@@ -1700,7 +1714,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="2" t="n">
@@ -1714,7 +1728,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B108" s="2" t="n">
@@ -1728,7 +1742,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B109" s="2" t="n">
@@ -1742,7 +1756,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B110" s="2" t="n">
@@ -1756,7 +1770,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B111" s="2" t="n">
@@ -1770,7 +1784,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="2" t="n">
@@ -1784,7 +1798,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B113" s="2" t="n">
